--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="6252" yWindow="2664" windowWidth="10140" windowHeight="7608" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -424,10 +424,10 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F10"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="13.8"/>
@@ -568,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>North_Gaza-Tuffah</t>
+          <t>Gaza-Tuffah</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -600,7 +600,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>North_Gaza</t>
+          <t>Gaza-Tuffah</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -685,6 +685,70 @@
       <c r="F8" t="inlineStr">
         <is>
           <t>Arial</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>24-6-2025</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Gaza-Jalaa</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Arial</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>25-6-2024</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rafah</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Ground</t>
         </is>
       </c>
     </row>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -424,7 +424,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
@@ -752,6 +752,230 @@
         </is>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>11-10-2024</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Zawaida</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Arial</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>15-6-2024</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rafah</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Ground</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>11-11-2023</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Deir-El-Balah</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Ground</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>12-8-2024</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nusairat</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ground</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>22-5-2024</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Deir-El-Balah</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Arial</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>23-7-2024</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Gaza-Jalaa</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Arial</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>22-10-2023</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Baitlahya</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Ground</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
